--- a/data/ret_man.xlsx
+++ b/data/ret_man.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7298451196802471</v>
+        <v>0.7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6559741024131842</v>
+        <v>0.6654719235364397</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
